--- a/Deliverables/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa\Desktop\ISEP\DESOFS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xavie\Documents\desofs2025_w-ed_nap_3\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24F28EA-7888-4AE2-B887-65BF2D2717E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98CE355-DC32-4760-ADAB-3FD9B2E15FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="848">
   <si>
     <t>Security Category</t>
   </si>
@@ -2148,9 +2148,6 @@
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
   </si>
   <si>
-    <t>Bandit</t>
-  </si>
-  <si>
     <t>Security has been integrated into the development lifecycle, including static and dynamic vulnerability analysis as well as regular security reviews.</t>
   </si>
   <si>
@@ -2449,6 +2446,186 @@
   </si>
   <si>
     <t>Using trusted repositories helps ensure that third-party components are secure and maintained</t>
+  </si>
+  <si>
+    <t>"main.py, firebase_auth.py, github/workflows/ci.yml"</t>
+  </si>
+  <si>
+    <t>GitHub, Bandit, Semgrep</t>
+  </si>
+  <si>
+    <t>Threats such as XSS, brute force, endpoint abuse and injections were considered and mitigated with validations and rate limiting.</t>
+  </si>
+  <si>
+    <t>OWASP Checklist</t>
+  </si>
+  <si>
+    <t>app.py, firebase_auth.py</t>
+  </si>
+  <si>
+    <t>Password policy enforces minimum 12 characters via check_password_requirements.</t>
+  </si>
+  <si>
+    <t>Custom validation</t>
+  </si>
+  <si>
+    <t>app.py</t>
+  </si>
+  <si>
+    <t>Passwords of up to 128 characters are accepted and validated, with more than this are denied</t>
+  </si>
+  <si>
+    <t>Passwords are not truncated at any stage in the backend or frontend.</t>
+  </si>
+  <si>
+    <t>Manual review</t>
+  </si>
+  <si>
+    <t>Passwords accept special symbols; full Unicode not explicitly tested.</t>
+  </si>
+  <si>
+    <t>zxcvbn</t>
+  </si>
+  <si>
+    <t>main.py, app.py</t>
+  </si>
+  <si>
+    <t>Password reset is available via email and manual change interface.</t>
+  </si>
+  <si>
+    <t>main.py, firebase_auth.py</t>
+  </si>
+  <si>
+    <t>firebase_login, verify_token</t>
+  </si>
+  <si>
+    <t>main.py, verify_token</t>
+  </si>
+  <si>
+    <t>Access to features/routes is enforced based on presence of valid token.</t>
+  </si>
+  <si>
+    <t>Firebase Auth, FastAPI dependencies</t>
+  </si>
+  <si>
+    <t>Firebase Auth, Streamlit role handling</t>
+  </si>
+  <si>
+    <t>main.py, get_user_role(token)</t>
+  </si>
+  <si>
+    <t>Streamlit</t>
+  </si>
+  <si>
+    <t>main.py, view_events.py</t>
+  </si>
+  <si>
+    <t>Access denied responses handled with HTTP 403 and role validation.</t>
+  </si>
+  <si>
+    <t>FastAPI</t>
+  </si>
+  <si>
+    <t>sanitize_input in app.py</t>
+  </si>
+  <si>
+    <t>All form fields passed through sanitize_input before usage.</t>
+  </si>
+  <si>
+    <t>Regex sanitization</t>
+  </si>
+  <si>
+    <t>Pydantic, FastAPI</t>
+  </si>
+  <si>
+    <t>Streamlit frontend</t>
+  </si>
+  <si>
+    <t>Redirects are controlled and hardcoded (no user input).</t>
+  </si>
+  <si>
+    <t>Streamlit routing</t>
+  </si>
+  <si>
+    <t>firebase_auth.py</t>
+  </si>
+  <si>
+    <t>Firebase manages cryptographic failures internally.</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <t>main.py</t>
+  </si>
+  <si>
+    <t>Custom Logging, FastAPI</t>
+  </si>
+  <si>
+    <t>main.py, verify_token logs</t>
+  </si>
+  <si>
+    <t>Log entries are generated for all login/reset/verification events.</t>
+  </si>
+  <si>
+    <t>Python logging</t>
+  </si>
+  <si>
+    <t>Sensitive credentials protected via Firebase authentication and HTTPS.</t>
+  </si>
+  <si>
+    <t>Streamlit app, session_state</t>
+  </si>
+  <si>
+    <t>User sessions held in memory, cleared on logout/session end.</t>
+  </si>
+  <si>
+    <t>Logs and user actions are stored persistently in local DB.</t>
+  </si>
+  <si>
+    <t>log_db.py (INSERT INTO logs)</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>Communication with Firebase and Auth service is TLS protected.</t>
+  </si>
+  <si>
+    <t>Server connections use HTTPS/TLS in deployment.</t>
+  </si>
+  <si>
+    <t>FastAPI, TLS</t>
+  </si>
+  <si>
+    <t>requirements.txt</t>
+  </si>
+  <si>
+    <t>Static code analysis and vulnerability audit tools used in CI/CD pipeline.</t>
+  </si>
+  <si>
+    <t>Bandit, Safety, pip-audit</t>
+  </si>
+  <si>
+    <t>app.py (login required)</t>
+  </si>
+  <si>
+    <t>Users must authenticate to access any business logic; bots excluded.</t>
+  </si>
+  <si>
+    <t>All communications occur over HTTPS/TLS.</t>
+  </si>
+  <si>
+    <t>FastAPI, Firebase</t>
+  </si>
+  <si>
+    <t>app.py, .env</t>
+  </si>
+  <si>
+    <t>Use of .env with load_dotenv()</t>
+  </si>
+  <si>
+    <t>dotenv</t>
   </si>
 </sst>
 </file>
@@ -3557,6 +3734,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3565,12 +3748,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3831,49 +4008,49 @@
                 <c:formatCode>#\ ##0.00\ _€;\-#\ ##0.00\ _€</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>63.636363636363633</c:v>
+                  <c:v>64.705882352941174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>49.090909090909093</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>77.777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.52941176470588</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>55.555555555555557</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>36.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.8823529411764701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44.444444444444443</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.333333333333329</c:v>
+                  <c:v>41.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.015810276679844</c:v>
+                  <c:v>41.338582677165356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,7 +4585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -4445,15 +4622,15 @@
       </c>
       <c r="B2" s="9">
         <f>0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10">
         <f>COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="11">
         <f t="shared" ref="D2:D16" si="0">(B2/C2)*100</f>
-        <v>63.636363636363633</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="E2" s="12"/>
     </row>
@@ -4463,7 +4640,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
@@ -4471,7 +4648,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>49.090909090909093</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4499,7 +4676,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4507,7 +4684,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>55.555555555555557</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -4517,7 +4694,7 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
@@ -4525,7 +4702,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>36.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -4535,7 +4712,7 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
@@ -4543,7 +4720,7 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="14"/>
@@ -4554,7 +4731,7 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
@@ -4562,7 +4739,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -4572,7 +4749,7 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
@@ -4580,7 +4757,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>5.8823529411764701</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -4590,7 +4767,7 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF(Communication!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4598,7 +4775,7 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="E10" s="12"/>
     </row>
@@ -4608,7 +4785,7 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4616,7 +4793,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>44.444444444444443</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -4626,7 +4803,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4634,7 +4811,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -4662,7 +4839,7 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
@@ -4670,7 +4847,7 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="E14" s="12"/>
     </row>
@@ -4680,7 +4857,7 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
@@ -4688,7 +4865,7 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -4698,15 +4875,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>32.015810276679844</v>
+        <v>41.338582677165356</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4726,7 +4903,7 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -4775,7 +4952,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>505</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -4792,14 +4969,20 @@
         <v>507</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>835</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="31.5">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>508</v>
       </c>
@@ -4814,14 +4997,14 @@
         <v>509</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>510</v>
       </c>
@@ -4836,14 +5019,14 @@
         <v>511</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="128" t="s">
         <v>512</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -4860,14 +5043,20 @@
         <v>514</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>836</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="63">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>515</v>
       </c>
@@ -4882,14 +5071,20 @@
         <v>516</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>517</v>
       </c>
@@ -4904,14 +5099,14 @@
         <v>518</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>519</v>
       </c>
@@ -4926,14 +5121,14 @@
         <v>520</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>521</v>
       </c>
@@ -4948,7 +5143,7 @@
         <v>522</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
@@ -4979,7 +5174,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5045,14 +5240,20 @@
         <v>525</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>838</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="128" t="s">
         <v>526</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -5069,14 +5270,14 @@
         <v>528</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>529</v>
       </c>
@@ -5098,7 +5299,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="78.75">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>531</v>
       </c>
@@ -5118,11 +5319,11 @@
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>533</v>
       </c>
@@ -5142,11 +5343,11 @@
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>535</v>
       </c>
@@ -5166,11 +5367,11 @@
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>537</v>
       </c>
@@ -5190,11 +5391,11 @@
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="128" t="s">
         <v>539</v>
       </c>
       <c r="B9" s="63" t="s">
@@ -5211,14 +5412,14 @@
         <v>541</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="63">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>542</v>
       </c>
@@ -5233,14 +5434,14 @@
         <v>543</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="94.5">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>544</v>
       </c>
@@ -5255,7 +5456,7 @@
         <v>545</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -5286,7 +5487,7 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5335,7 +5536,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>546</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5352,14 +5553,14 @@
         <v>548</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>549</v>
       </c>
@@ -5374,14 +5575,14 @@
         <v>550</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>551</v>
       </c>
@@ -5396,14 +5597,14 @@
         <v>552</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>553</v>
       </c>
@@ -5418,14 +5619,20 @@
         <v>554</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>841</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>555</v>
       </c>
@@ -5440,14 +5647,14 @@
         <v>556</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>557</v>
       </c>
@@ -5462,14 +5669,14 @@
         <v>558</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>559</v>
       </c>
@@ -5484,14 +5691,14 @@
         <v>560</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>561</v>
       </c>
@@ -5506,7 +5713,7 @@
         <v>562</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
@@ -5535,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5584,7 +5791,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>599</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -5601,14 +5808,20 @@
         <v>601</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>843</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>602</v>
       </c>
@@ -5630,7 +5843,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>604</v>
       </c>
@@ -5647,14 +5860,18 @@
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>824</v>
+      </c>
       <c r="I4" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="J4" s="33"/>
+        <v>776</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="126.75" thickBot="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>606</v>
       </c>
@@ -5673,14 +5890,14 @@
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="142.5" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>608</v>
       </c>
@@ -5699,12 +5916,12 @@
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="144.75" customHeight="1" thickBot="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="128" t="s">
         <v>610</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -5725,12 +5942,12 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>613</v>
       </c>
@@ -5745,14 +5962,14 @@
         <v>614</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="47.25">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>615</v>
       </c>
@@ -5767,14 +5984,14 @@
         <v>616</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>617</v>
       </c>
@@ -5796,7 +6013,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>619</v>
       </c>
@@ -5811,14 +6028,14 @@
         <v>620</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="174" thickBot="1">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="63" t="s">
         <v>621</v>
       </c>
@@ -5837,14 +6054,14 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="31" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="128" t="s">
         <v>623</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -5861,14 +6078,14 @@
         <v>625</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="31.5">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>626</v>
       </c>
@@ -5883,14 +6100,14 @@
         <v>627</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="128" t="s">
         <v>628</v>
       </c>
       <c r="B15" s="63" t="s">
@@ -5907,14 +6124,14 @@
         <v>630</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="31.5">
-      <c r="A16" s="126"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="63" t="s">
         <v>631</v>
       </c>
@@ -5929,7 +6146,7 @@
         <v>632</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -5961,8 +6178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -6011,7 +6228,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="144" customHeight="1" thickBot="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="129" t="s">
         <v>633</v>
       </c>
       <c r="B2" s="100" t="s">
@@ -6026,18 +6243,18 @@
         <v>635</v>
       </c>
       <c r="G2" s="105" t="s">
-        <v>694</v>
+        <v>26</v>
       </c>
       <c r="H2" s="105"/>
-      <c r="I2" s="128" t="s">
-        <v>784</v>
+      <c r="I2" s="125" t="s">
+        <v>783</v>
       </c>
       <c r="J2" s="106" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48" thickBot="1">
-      <c r="A3" s="127"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="63" t="s">
         <v>636</v>
       </c>
@@ -6052,14 +6269,14 @@
         <v>637</v>
       </c>
       <c r="G3" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="111"/>
       <c r="I3" s="111"/>
       <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A4" s="127"/>
+      <c r="A4" s="129"/>
       <c r="B4" s="63" t="s">
         <v>638</v>
       </c>
@@ -6074,14 +6291,14 @@
         <v>639</v>
       </c>
       <c r="G4" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="111"/>
-      <c r="I4" s="129"/>
+      <c r="I4" s="126"/>
       <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" ht="48" thickBot="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="63" t="s">
         <v>640</v>
       </c>
@@ -6094,14 +6311,20 @@
         <v>641</v>
       </c>
       <c r="G5" s="111" t="s">
-        <v>694</v>
-      </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>845</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>846</v>
+      </c>
+      <c r="J5" s="112" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="126.75" thickBot="1">
-      <c r="A6" s="127"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="63" t="s">
         <v>642</v>
       </c>
@@ -6114,18 +6337,18 @@
         <v>643</v>
       </c>
       <c r="G6" s="111" t="s">
-        <v>694</v>
+        <v>26</v>
       </c>
       <c r="H6" s="111"/>
-      <c r="I6" s="129" t="s">
-        <v>786</v>
+      <c r="I6" s="126" t="s">
+        <v>785</v>
       </c>
       <c r="J6" s="112" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="78" customHeight="1" thickBot="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="128" t="s">
         <v>644</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -6145,15 +6368,15 @@
         <v>26</v>
       </c>
       <c r="H7" s="111"/>
-      <c r="I7" s="129" t="s">
-        <v>787</v>
+      <c r="I7" s="126" t="s">
+        <v>786</v>
       </c>
       <c r="J7" s="112" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>647</v>
       </c>
@@ -6168,14 +6391,14 @@
         <v>648</v>
       </c>
       <c r="G8" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="111"/>
       <c r="I8" s="111"/>
       <c r="J8" s="112"/>
     </row>
     <row r="9" spans="1:10" ht="48" thickBot="1">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>649</v>
       </c>
@@ -6190,14 +6413,14 @@
         <v>650</v>
       </c>
       <c r="G9" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
       <c r="J9" s="112"/>
     </row>
     <row r="10" spans="1:10" ht="95.25" thickBot="1">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>651</v>
       </c>
@@ -6215,13 +6438,13 @@
         <v>26</v>
       </c>
       <c r="H10" s="111"/>
-      <c r="I10" s="129" t="s">
-        <v>788</v>
+      <c r="I10" s="126" t="s">
+        <v>787</v>
       </c>
       <c r="J10" s="112"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>653</v>
       </c>
@@ -6234,14 +6457,14 @@
         <v>654</v>
       </c>
       <c r="G11" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="111"/>
       <c r="I11" s="111"/>
       <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:10" ht="47.25">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="63" t="s">
         <v>655</v>
       </c>
@@ -6256,14 +6479,14 @@
         <v>656</v>
       </c>
       <c r="G12" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="111"/>
       <c r="I12" s="111"/>
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="128" t="s">
         <v>657</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -6287,7 +6510,7 @@
       <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:10" ht="48" thickBot="1">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>660</v>
       </c>
@@ -6309,7 +6532,7 @@
       <c r="J14" s="112"/>
     </row>
     <row r="15" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A15" s="126"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="63" t="s">
         <v>662</v>
       </c>
@@ -6324,14 +6547,14 @@
         <v>663</v>
       </c>
       <c r="G15" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="111"/>
-      <c r="I15" s="129"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="128" t="s">
         <v>664</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -6348,14 +6571,14 @@
         <v>666</v>
       </c>
       <c r="G16" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="111"/>
       <c r="I16" s="111"/>
       <c r="J16" s="112"/>
     </row>
     <row r="17" spans="1:10" ht="31.5">
-      <c r="A17" s="126"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="63" t="s">
         <v>667</v>
       </c>
@@ -6370,14 +6593,14 @@
         <v>668</v>
       </c>
       <c r="G17" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H17" s="111"/>
       <c r="I17" s="111"/>
       <c r="J17" s="112"/>
     </row>
     <row r="18" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A18" s="126"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="63" t="s">
         <v>669</v>
       </c>
@@ -6392,14 +6615,14 @@
         <v>670</v>
       </c>
       <c r="G18" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="111"/>
       <c r="I18" s="111"/>
       <c r="J18" s="112"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A19" s="126"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="63" t="s">
         <v>671</v>
       </c>
@@ -6414,14 +6637,14 @@
         <v>672</v>
       </c>
       <c r="G19" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H19" s="111"/>
-      <c r="I19" s="129"/>
+      <c r="I19" s="126"/>
       <c r="J19" s="112"/>
     </row>
     <row r="20" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A20" s="126"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="63" t="s">
         <v>673</v>
       </c>
@@ -6436,14 +6659,14 @@
         <v>674</v>
       </c>
       <c r="G20" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H20" s="111"/>
       <c r="I20" s="111"/>
       <c r="J20" s="112"/>
     </row>
     <row r="21" spans="1:10" ht="31.5">
-      <c r="A21" s="126"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="63" t="s">
         <v>675</v>
       </c>
@@ -6458,14 +6681,14 @@
         <v>676</v>
       </c>
       <c r="G21" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H21" s="111"/>
       <c r="I21" s="111"/>
       <c r="J21" s="112"/>
     </row>
     <row r="22" spans="1:10" ht="63">
-      <c r="A22" s="126"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="63" t="s">
         <v>677</v>
       </c>
@@ -6480,14 +6703,14 @@
         <v>678</v>
       </c>
       <c r="G22" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H22" s="111"/>
       <c r="I22" s="111"/>
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="128" t="s">
         <v>679</v>
       </c>
       <c r="B23" s="63" t="s">
@@ -6504,14 +6727,14 @@
         <v>681</v>
       </c>
       <c r="G23" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H23" s="111"/>
       <c r="I23" s="111"/>
       <c r="J23" s="112"/>
     </row>
     <row r="24" spans="1:10" ht="31.5">
-      <c r="A24" s="126"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="63" t="s">
         <v>682</v>
       </c>
@@ -6526,14 +6749,14 @@
         <v>683</v>
       </c>
       <c r="G24" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H24" s="111"/>
       <c r="I24" s="111"/>
       <c r="J24" s="112"/>
     </row>
     <row r="25" spans="1:10" ht="47.25">
-      <c r="A25" s="126"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="63" t="s">
         <v>684</v>
       </c>
@@ -6548,14 +6771,14 @@
         <v>685</v>
       </c>
       <c r="G25" s="111" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H25" s="111"/>
       <c r="I25" s="111"/>
       <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:10" ht="31.5">
-      <c r="A26" s="126"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="63" t="s">
         <v>686</v>
       </c>
@@ -6570,7 +6793,7 @@
         <v>687</v>
       </c>
       <c r="G26" s="119" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H26" s="119"/>
       <c r="I26" s="119"/>
@@ -6603,7 +6826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -6653,7 +6876,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>563</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -6677,7 +6900,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>566</v>
       </c>
@@ -6699,7 +6922,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="47.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>568</v>
       </c>
@@ -6745,7 +6968,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>573</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -6769,7 +6992,7 @@
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>576</v>
       </c>
@@ -6791,7 +7014,7 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="47.25">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>578</v>
       </c>
@@ -6813,7 +7036,7 @@
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>580</v>
       </c>
@@ -6835,7 +7058,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>582</v>
       </c>
@@ -6857,7 +7080,7 @@
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="47.25">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>584</v>
       </c>
@@ -6879,7 +7102,7 @@
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="128" t="s">
         <v>586</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -6903,7 +7126,7 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="31.5">
-      <c r="A13" s="126"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="63" t="s">
         <v>589</v>
       </c>
@@ -6925,7 +7148,7 @@
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="128" t="s">
         <v>591</v>
       </c>
       <c r="B14" s="63" t="s">
@@ -6949,7 +7172,7 @@
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="126"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="63" t="s">
         <v>594</v>
       </c>
@@ -7020,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A40" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -7071,7 +7294,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="58.15" customHeight="1">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -7088,16 +7311,18 @@
       <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>788</v>
+      </c>
       <c r="I2" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A3" s="125"/>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
+      <c r="A3" s="127"/>
       <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
@@ -7112,14 +7337,18 @@
         <v>34</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A4" s="125"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
@@ -7138,12 +7367,12 @@
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A5" s="125"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
@@ -7165,7 +7394,7 @@
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A6" s="125"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
@@ -7184,14 +7413,14 @@
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="J6" s="32" t="s">
-        <v>692</v>
-      </c>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
-      <c r="A7" s="125"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
@@ -7211,11 +7440,11 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A8" s="125"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
@@ -7230,16 +7459,16 @@
         <v>44</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="127" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -7261,11 +7490,11 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
-      <c r="A10" s="125"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="19" t="s">
         <v>48</v>
       </c>
@@ -7284,14 +7513,14 @@
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="111" thickBot="1">
-      <c r="A11" s="125"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="19" t="s">
         <v>50</v>
       </c>
@@ -7310,14 +7539,14 @@
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="142.5" thickBot="1">
-      <c r="A12" s="125"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="19" t="s">
         <v>52</v>
       </c>
@@ -7336,7 +7565,7 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J12" s="32"/>
     </row>
@@ -7359,7 +7588,7 @@
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="127" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -7380,14 +7609,14 @@
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A15" s="125"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="19" t="s">
         <v>60</v>
       </c>
@@ -7409,7 +7638,7 @@
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A16" s="125"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="19" t="s">
         <v>62</v>
       </c>
@@ -7431,7 +7660,7 @@
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="126.75" thickBot="1">
-      <c r="A17" s="125"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="19" t="s">
         <v>64</v>
       </c>
@@ -7450,14 +7679,14 @@
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="121" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="189.75" thickBot="1">
-      <c r="A18" s="125"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="19" t="s">
         <v>66</v>
       </c>
@@ -7476,14 +7705,14 @@
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>702</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>703</v>
-      </c>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="127" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -7504,12 +7733,12 @@
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="121" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
-      <c r="A20" s="125"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
@@ -7528,12 +7757,12 @@
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="121" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="158.25" thickBot="1">
-      <c r="A21" s="125"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="19" t="s">
         <v>73</v>
       </c>
@@ -7552,14 +7781,14 @@
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="121" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A22" s="125"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="19" t="s">
         <v>75</v>
       </c>
@@ -7574,14 +7803,14 @@
         <v>76</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="127" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -7605,7 +7834,7 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A24" s="125"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="19" t="s">
         <v>80</v>
       </c>
@@ -7627,7 +7856,7 @@
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A25" s="125"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="19" t="s">
         <v>82</v>
       </c>
@@ -7649,7 +7878,7 @@
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A26" s="125"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="19" t="s">
         <v>84</v>
       </c>
@@ -7668,12 +7897,12 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="121" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="127" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -7690,16 +7919,16 @@
         <v>88</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="121" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A28" s="125"/>
+      <c r="A28" s="127"/>
       <c r="B28" s="19" t="s">
         <v>89</v>
       </c>
@@ -7712,14 +7941,14 @@
         <v>90</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="127" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -7734,16 +7963,16 @@
         <v>93</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="121" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
-      <c r="A30" s="125"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="19" t="s">
         <v>94</v>
       </c>
@@ -7763,7 +7992,7 @@
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="127" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -7784,12 +8013,12 @@
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J31" s="33"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A32" s="125"/>
+      <c r="A32" s="127"/>
       <c r="B32" s="19" t="s">
         <v>99</v>
       </c>
@@ -7804,11 +8033,11 @@
         <v>100</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="122" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J32" s="33"/>
     </row>
@@ -7834,14 +8063,14 @@
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="J33" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="J33" s="33" t="s">
-        <v>715</v>
-      </c>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="127" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -7858,14 +8087,14 @@
         <v>106</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A35" s="125"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="19" t="s">
         <v>107</v>
       </c>
@@ -7880,14 +8109,14 @@
         <v>108</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="63">
-      <c r="A36" s="125"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="19" t="s">
         <v>109</v>
       </c>
@@ -7902,14 +8131,14 @@
         <v>110</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="127" t="s">
         <v>111</v>
       </c>
       <c r="B37" s="19" t="s">
@@ -7933,7 +8162,7 @@
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="94.5">
-      <c r="A38" s="125"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="19" t="s">
         <v>114</v>
       </c>
@@ -7948,7 +8177,7 @@
         <v>115</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -7973,7 +8202,7 @@
       <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="58.9" customHeight="1" thickBot="1">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="127" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="19" t="s">
@@ -7994,14 +8223,14 @@
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="31" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A41" s="125"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="19" t="s">
         <v>120</v>
       </c>
@@ -8016,14 +8245,14 @@
         <v>121</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="33"/>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A42" s="125"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="19" t="s">
         <v>122</v>
       </c>
@@ -8038,14 +8267,14 @@
         <v>123</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="142.5" thickBot="1">
-      <c r="A43" s="125"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="19" t="s">
         <v>124</v>
       </c>
@@ -8062,14 +8291,14 @@
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="J43" s="32" t="s">
         <v>717</v>
       </c>
-      <c r="J43" s="32" t="s">
-        <v>718</v>
-      </c>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A44" s="125"/>
+      <c r="A44" s="127"/>
       <c r="B44" s="19" t="s">
         <v>126</v>
       </c>
@@ -8091,7 +8320,7 @@
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="111" thickBot="1">
-      <c r="A45" s="125"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="19" t="s">
         <v>128</v>
       </c>
@@ -8110,23 +8339,23 @@
       </c>
       <c r="H45" s="36"/>
       <c r="I45" s="123" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J45" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8147,8 +8376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -8198,7 +8427,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>130</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -8217,14 +8446,20 @@
         <v>133</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A3" s="126"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>792</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>793</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="63">
+      <c r="A3" s="128"/>
       <c r="B3" s="45" t="s">
         <v>134</v>
       </c>
@@ -8241,14 +8476,20 @@
         <v>135</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="45" t="s">
         <v>136</v>
       </c>
@@ -8265,14 +8506,20 @@
         <v>137</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.5">
-      <c r="A5" s="126"/>
+        <v>26</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="47.25">
+      <c r="A5" s="128"/>
       <c r="B5" s="45" t="s">
         <v>138</v>
       </c>
@@ -8289,14 +8536,20 @@
         <v>139</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="15.75">
-      <c r="A6" s="126"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>795</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>799</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="47.25">
+      <c r="A6" s="128"/>
       <c r="B6" s="45" t="s">
         <v>140</v>
       </c>
@@ -8313,14 +8566,20 @@
         <v>141</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="26" customFormat="1" ht="31.5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="45" t="s">
         <v>142</v>
       </c>
@@ -8337,14 +8596,14 @@
         <v>143</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="26" customFormat="1" ht="141.75">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="45" t="s">
         <v>144</v>
       </c>
@@ -8361,14 +8620,14 @@
         <v>145</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="31.5">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="45" t="s">
         <v>146</v>
       </c>
@@ -8385,14 +8644,14 @@
         <v>147</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="26" customFormat="1" ht="63">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="45" t="s">
         <v>148</v>
       </c>
@@ -8409,14 +8668,14 @@
         <v>149</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="26" customFormat="1" ht="31.5">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="45" t="s">
         <v>150</v>
       </c>
@@ -8433,14 +8692,14 @@
         <v>151</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" s="26" customFormat="1" ht="31.5">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="45" t="s">
         <v>152</v>
       </c>
@@ -8464,7 +8723,7 @@
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="45" t="s">
         <v>154</v>
       </c>
@@ -8481,14 +8740,14 @@
         <v>155</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="128" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="45" t="s">
@@ -8507,14 +8766,14 @@
         <v>159</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A15" s="126"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="45" t="s">
         <v>160</v>
       </c>
@@ -8531,16 +8790,16 @@
         <v>162</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A16" s="126"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="45" t="s">
         <v>163</v>
       </c>
@@ -8555,14 +8814,14 @@
         <v>164</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="63">
-      <c r="A17" s="126"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="45" t="s">
         <v>165</v>
       </c>
@@ -8579,14 +8838,14 @@
         <v>167</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="45" t="s">
         <v>168</v>
       </c>
@@ -8603,14 +8862,14 @@
         <v>170</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="31.5">
-      <c r="A19" s="126"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="45" t="s">
         <v>171</v>
       </c>
@@ -8627,14 +8886,14 @@
         <v>173</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A20" s="126"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="45" t="s">
         <v>174</v>
       </c>
@@ -8651,14 +8910,14 @@
         <v>176</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="128" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="45" t="s">
@@ -8681,14 +8940,14 @@
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A22" s="126"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="45" t="s">
         <v>181</v>
       </c>
@@ -8705,14 +8964,14 @@
         <v>183</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A23" s="126"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="45" t="s">
         <v>184</v>
       </c>
@@ -8729,14 +8988,14 @@
         <v>186</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="95.25" customHeight="1" thickBot="1">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="128" t="s">
         <v>187</v>
       </c>
       <c r="B24" s="45" t="s">
@@ -8759,14 +9018,14 @@
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A25" s="126"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="45" t="s">
         <v>190</v>
       </c>
@@ -8787,14 +9046,14 @@
       </c>
       <c r="H25" s="31"/>
       <c r="I25" s="31" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="26" customFormat="1" ht="111" thickBot="1">
-      <c r="A26" s="126"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="45" t="s">
         <v>192</v>
       </c>
@@ -8815,12 +9074,12 @@
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A27" s="126"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="45" t="s">
         <v>194</v>
       </c>
@@ -8841,14 +9100,14 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="26" customFormat="1" ht="111" thickBot="1">
-      <c r="A28" s="126"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="45" t="s">
         <v>196</v>
       </c>
@@ -8869,12 +9128,12 @@
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="31" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="128" t="s">
         <v>198</v>
       </c>
       <c r="B29" s="45" t="s">
@@ -8897,14 +9156,14 @@
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="31" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
-      <c r="A30" s="126"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="45" t="s">
         <v>201</v>
       </c>
@@ -8925,12 +9184,12 @@
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A31" s="126"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="45" t="s">
         <v>203</v>
       </c>
@@ -8951,14 +9210,14 @@
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A32" s="126"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="45" t="s">
         <v>205</v>
       </c>
@@ -8979,14 +9238,14 @@
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="79.5" thickBot="1">
-      <c r="A33" s="126"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="45" t="s">
         <v>207</v>
       </c>
@@ -9007,14 +9266,14 @@
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A34" s="126"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="45" t="s">
         <v>210</v>
       </c>
@@ -9035,14 +9294,14 @@
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A35" s="126"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="45" t="s">
         <v>212</v>
       </c>
@@ -9059,14 +9318,14 @@
         <v>213</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="128" t="s">
         <v>214</v>
       </c>
       <c r="B36" s="45" t="s">
@@ -9089,14 +9348,14 @@
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="31" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A37" s="126"/>
+      <c r="A37" s="128"/>
       <c r="B37" s="45" t="s">
         <v>218</v>
       </c>
@@ -9113,14 +9372,14 @@
         <v>219</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A38" s="126"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="45" t="s">
         <v>220</v>
       </c>
@@ -9141,14 +9400,14 @@
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="31" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="128" t="s">
         <v>222</v>
       </c>
       <c r="B39" s="45" t="s">
@@ -9171,14 +9430,14 @@
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="31" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A40" s="126"/>
+      <c r="A40" s="128"/>
       <c r="B40" s="45" t="s">
         <v>226</v>
       </c>
@@ -9199,14 +9458,14 @@
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A41" s="126"/>
+      <c r="A41" s="128"/>
       <c r="B41" s="45" t="s">
         <v>228</v>
       </c>
@@ -9227,14 +9486,14 @@
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A42" s="126"/>
+      <c r="A42" s="128"/>
       <c r="B42" s="45" t="s">
         <v>230</v>
       </c>
@@ -9255,14 +9514,14 @@
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J42" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A43" s="126"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="45" t="s">
         <v>232</v>
       </c>
@@ -9279,14 +9538,14 @@
         <v>233</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="33"/>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A44" s="126"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="45" t="s">
         <v>234</v>
       </c>
@@ -9303,14 +9562,14 @@
         <v>235</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A45" s="126" t="s">
+      <c r="A45" s="128" t="s">
         <v>236</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -9333,14 +9592,14 @@
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="31" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J45" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A46" s="126"/>
+      <c r="A46" s="128"/>
       <c r="B46" s="45" t="s">
         <v>240</v>
       </c>
@@ -9357,14 +9616,14 @@
         <v>241</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A47" s="126"/>
+      <c r="A47" s="128"/>
       <c r="B47" s="45" t="s">
         <v>242</v>
       </c>
@@ -9388,7 +9647,7 @@
       <c r="J47" s="33"/>
     </row>
     <row r="48" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A48" s="126"/>
+      <c r="A48" s="128"/>
       <c r="B48" s="45" t="s">
         <v>244</v>
       </c>
@@ -9409,12 +9668,12 @@
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A49" s="126"/>
+      <c r="A49" s="128"/>
       <c r="B49" s="45" t="s">
         <v>246</v>
       </c>
@@ -9431,14 +9690,14 @@
         <v>248</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A50" s="126"/>
+      <c r="A50" s="128"/>
       <c r="B50" s="45" t="s">
         <v>249</v>
       </c>
@@ -9455,14 +9714,14 @@
         <v>251</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
       <c r="J50" s="33"/>
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" ht="47.25">
-      <c r="A51" s="126"/>
+      <c r="A51" s="128"/>
       <c r="B51" s="45" t="s">
         <v>252</v>
       </c>
@@ -9479,14 +9738,14 @@
         <v>254</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="126" t="s">
+      <c r="A52" s="128" t="s">
         <v>255</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -9505,14 +9764,14 @@
         <v>258</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="32.25" thickBot="1">
-      <c r="A53" s="126"/>
+      <c r="A53" s="128"/>
       <c r="B53" s="45" t="s">
         <v>259</v>
       </c>
@@ -9529,14 +9788,14 @@
         <v>260</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
       <c r="J53" s="33"/>
     </row>
     <row r="54" spans="1:10" s="26" customFormat="1" ht="63.75" thickBot="1">
-      <c r="A54" s="126"/>
+      <c r="A54" s="128"/>
       <c r="B54" s="45" t="s">
         <v>261</v>
       </c>
@@ -9557,14 +9816,14 @@
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A55" s="126" t="s">
+      <c r="A55" s="128" t="s">
         <v>263</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -9583,14 +9842,14 @@
         <v>267</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="33"/>
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" ht="48" thickBot="1">
-      <c r="A56" s="126"/>
+      <c r="A56" s="128"/>
       <c r="B56" s="45" t="s">
         <v>268</v>
       </c>
@@ -9607,14 +9866,14 @@
         <v>269</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="33"/>
     </row>
     <row r="57" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A57" s="126"/>
+      <c r="A57" s="128"/>
       <c r="B57" s="45" t="s">
         <v>270</v>
       </c>
@@ -9635,14 +9894,14 @@
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="31" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="95.25" thickBot="1">
-      <c r="A58" s="126"/>
+      <c r="A58" s="128"/>
       <c r="B58" s="45" t="s">
         <v>272</v>
       </c>
@@ -9657,7 +9916,7 @@
         <v>273</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
@@ -9665,16 +9924,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9695,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -9765,14 +10024,18 @@
       <c r="G2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>803</v>
+      </c>
       <c r="I2" s="51" t="s">
-        <v>745</v>
-      </c>
-      <c r="J2" s="66"/>
+        <v>744</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="128" t="s">
         <v>277</v>
       </c>
       <c r="B3" s="63" t="s">
@@ -9795,12 +10058,12 @@
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="111" thickBot="1">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>280</v>
       </c>
@@ -9819,16 +10082,18 @@
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>804</v>
+      </c>
       <c r="I4" s="31" t="s">
+        <v>746</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>748</v>
-      </c>
     </row>
     <row r="5" spans="1:10" ht="48" thickBot="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>282</v>
       </c>
@@ -9845,14 +10110,14 @@
         <v>283</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>284</v>
       </c>
@@ -9873,12 +10138,12 @@
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="31" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="128" t="s">
         <v>286</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -9901,12 +10166,12 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="31" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="111" thickBot="1">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>289</v>
       </c>
@@ -9923,14 +10188,14 @@
         <v>290</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>291</v>
       </c>
@@ -9945,14 +10210,14 @@
         <v>292</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>293</v>
       </c>
@@ -9969,14 +10234,14 @@
         <v>294</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="128" t="s">
         <v>295</v>
       </c>
       <c r="B11" s="63" t="s">
@@ -9995,14 +10260,14 @@
         <v>298</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="47.25">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="63" t="s">
         <v>299</v>
       </c>
@@ -10019,14 +10284,14 @@
         <v>300</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="63">
-      <c r="A13" s="126"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="63" t="s">
         <v>301</v>
       </c>
@@ -10043,14 +10308,14 @@
         <v>302</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="31.5">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>303</v>
       </c>
@@ -10067,14 +10332,14 @@
         <v>304</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="94.5">
-      <c r="A15" s="126"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="63" t="s">
         <v>305</v>
       </c>
@@ -10091,14 +10356,14 @@
         <v>306</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="128" t="s">
         <v>307</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -10117,14 +10382,14 @@
         <v>310</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A17" s="126"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="63" t="s">
         <v>311</v>
       </c>
@@ -10143,12 +10408,12 @@
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="48" thickBot="1">
-      <c r="A18" s="126"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="63" t="s">
         <v>313</v>
       </c>
@@ -10163,14 +10428,14 @@
         <v>314</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="128" t="s">
         <v>315</v>
       </c>
       <c r="B19" s="63" t="s">
@@ -10189,14 +10454,14 @@
         <v>318</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="48" thickBot="1">
-      <c r="A20" s="126"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="63" t="s">
         <v>319</v>
       </c>
@@ -10213,7 +10478,7 @@
         <v>320</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -10241,7 +10506,7 @@
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="123" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J21" s="38"/>
     </row>
@@ -10282,7 +10547,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -10294,7 +10559,7 @@
     <col min="6" max="6" width="68.7109375" style="26" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="26" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="37" style="26" customWidth="1"/>
     <col min="10" max="10" width="42.140625" style="26" customWidth="1"/>
     <col min="11" max="1024" width="8.85546875" style="26"/>
   </cols>
@@ -10332,7 +10597,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>324</v>
       </c>
       <c r="B2" s="78" t="s">
@@ -10349,14 +10614,20 @@
         <v>326</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>806</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="95.25" thickBot="1">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="78" t="s">
         <v>327</v>
       </c>
@@ -10373,14 +10644,18 @@
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>809</v>
+      </c>
       <c r="I3" s="31" t="s">
-        <v>753</v>
-      </c>
-      <c r="J3" s="33"/>
+        <v>752</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="126.75" thickBot="1">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="78" t="s">
         <v>329</v>
       </c>
@@ -10397,14 +10672,18 @@
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>809</v>
+      </c>
       <c r="I4" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="J4" s="33"/>
+        <v>753</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="78" t="s">
         <v>331</v>
       </c>
@@ -10426,7 +10705,7 @@
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="78" t="s">
         <v>332</v>
       </c>
@@ -10441,14 +10720,20 @@
         <v>333</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1" thickBot="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="128" t="s">
         <v>334</v>
       </c>
       <c r="B7" s="78" t="s">
@@ -10469,12 +10754,12 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="124" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="48" thickBot="1">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="78" t="s">
         <v>337</v>
       </c>
@@ -10489,14 +10774,14 @@
         <v>338</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="128" t="s">
         <v>339</v>
       </c>
       <c r="B9" s="78" t="s">
@@ -10517,12 +10802,12 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="111" thickBot="1">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="78" t="s">
         <v>342</v>
       </c>
@@ -10541,12 +10826,12 @@
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="78" t="s">
         <v>344</v>
       </c>
@@ -10561,7 +10846,7 @@
         <v>345</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
@@ -10592,8 +10877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A15" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -10642,7 +10927,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>346</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -10659,14 +10944,14 @@
         <v>348</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="95.25" thickBot="1">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>349</v>
       </c>
@@ -10684,15 +10969,17 @@
         <v>26</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="J3" s="33"/>
+        <v>757</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="79.5" thickBot="1">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>351</v>
       </c>
@@ -10707,14 +10994,20 @@
         <v>352</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>814</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="111" thickBot="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>353</v>
       </c>
@@ -10732,15 +11025,17 @@
         <v>26</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>759</v>
-      </c>
-      <c r="J5" s="33"/>
+        <v>758</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="48" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>355</v>
       </c>
@@ -10755,14 +11050,20 @@
         <v>356</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>819</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="128" t="s">
         <v>357</v>
       </c>
       <c r="B7" s="63" t="s">
@@ -10779,14 +11080,14 @@
         <v>358</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>359</v>
       </c>
@@ -10801,14 +11102,14 @@
         <v>360</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>253</v>
       </c>
@@ -10823,14 +11124,14 @@
         <v>361</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="79.5" thickBot="1">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>362</v>
       </c>
@@ -10849,12 +11150,12 @@
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="31" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>166</v>
       </c>
@@ -10873,14 +11174,14 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="J11" s="33" t="s">
         <v>762</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>763</v>
-      </c>
     </row>
     <row r="12" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="63" t="s">
         <v>169</v>
       </c>
@@ -10895,14 +11196,14 @@
         <v>365</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="63">
-      <c r="A13" s="126"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="63" t="s">
         <v>366</v>
       </c>
@@ -10917,14 +11218,14 @@
         <v>367</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>172</v>
       </c>
@@ -10939,14 +11240,14 @@
         <v>368</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1" thickBot="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="128" t="s">
         <v>369</v>
       </c>
       <c r="B15" s="63" t="s">
@@ -10967,14 +11268,14 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="79.5" thickBot="1">
-      <c r="A16" s="126"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="63" t="s">
         <v>372</v>
       </c>
@@ -10993,14 +11294,14 @@
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="31" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A17" s="126"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="63" t="s">
         <v>374</v>
       </c>
@@ -11019,14 +11320,14 @@
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="31" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="79.5" thickBot="1">
-      <c r="A18" s="126"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="63" t="s">
         <v>376</v>
       </c>
@@ -11045,14 +11346,14 @@
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="31" t="s">
+        <v>766</v>
+      </c>
+      <c r="J18" s="33" t="s">
         <v>767</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>768</v>
-      </c>
     </row>
     <row r="19" spans="1:10" ht="95.25" thickBot="1">
-      <c r="A19" s="126"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="63" t="s">
         <v>378</v>
       </c>
@@ -11071,14 +11372,14 @@
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="31" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A20" s="126"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="63" t="s">
         <v>380</v>
       </c>
@@ -11093,14 +11394,14 @@
         <v>381</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="78.75">
-      <c r="A21" s="126"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="63" t="s">
         <v>382</v>
       </c>
@@ -11115,14 +11416,14 @@
         <v>383</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="78.75">
-      <c r="A22" s="126"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="63" t="s">
         <v>384</v>
       </c>
@@ -11137,14 +11438,14 @@
         <v>385</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="31.5">
-      <c r="A23" s="126"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="63" t="s">
         <v>386</v>
       </c>
@@ -11159,14 +11460,14 @@
         <v>387</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="48" thickBot="1">
-      <c r="A24" s="126"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="63" t="s">
         <v>388</v>
       </c>
@@ -11181,14 +11482,14 @@
         <v>389</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="128" t="s">
         <v>390</v>
       </c>
       <c r="B25" s="63" t="s">
@@ -11209,12 +11510,12 @@
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="31" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J25" s="33"/>
     </row>
     <row r="26" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A26" s="126"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="63" t="s">
         <v>393</v>
       </c>
@@ -11233,12 +11534,12 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="31" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A27" s="126"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="63" t="s">
         <v>395</v>
       </c>
@@ -11253,14 +11554,14 @@
         <v>396</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="128" t="s">
         <v>397</v>
       </c>
       <c r="B28" s="63" t="s">
@@ -11277,14 +11578,14 @@
         <v>399</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" ht="63">
-      <c r="A29" s="126"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="63" t="s">
         <v>400</v>
       </c>
@@ -11299,14 +11600,14 @@
         <v>401</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="33"/>
     </row>
     <row r="30" spans="1:10" ht="47.25">
-      <c r="A30" s="126"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="63" t="s">
         <v>402</v>
       </c>
@@ -11321,14 +11622,14 @@
         <v>403</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" ht="47.25">
-      <c r="A31" s="126"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="63" t="s">
         <v>404</v>
       </c>
@@ -11343,7 +11644,7 @@
         <v>405</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
@@ -11376,8 +11677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -11427,7 +11728,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>406</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -11444,14 +11745,14 @@
         <v>408</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="31.5">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>409</v>
       </c>
@@ -11466,14 +11767,14 @@
         <v>410</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="47.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>182</v>
       </c>
@@ -11488,14 +11789,14 @@
         <v>411</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="128" t="s">
         <v>412</v>
       </c>
       <c r="B5" s="63" t="s">
@@ -11512,14 +11813,20 @@
         <v>414</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>821</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>822</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="47.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>415</v>
       </c>
@@ -11534,14 +11841,14 @@
         <v>416</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>417</v>
       </c>
@@ -11556,14 +11863,14 @@
         <v>418</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="47.25">
-      <c r="A8" s="126"/>
+      <c r="A8" s="128"/>
       <c r="B8" s="63" t="s">
         <v>419</v>
       </c>
@@ -11578,14 +11885,14 @@
         <v>420</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="47.25">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>421</v>
       </c>
@@ -11600,14 +11907,14 @@
         <v>422</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="47.25">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>423</v>
       </c>
@@ -11622,14 +11929,14 @@
         <v>424</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>425</v>
       </c>
@@ -11644,14 +11951,14 @@
         <v>426</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="31.5">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="63" t="s">
         <v>427</v>
       </c>
@@ -11666,14 +11973,14 @@
         <v>428</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="128" t="s">
         <v>429</v>
       </c>
       <c r="B13" s="63" t="s">
@@ -11690,14 +11997,14 @@
         <v>431</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="47.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>432</v>
       </c>
@@ -11712,14 +12019,14 @@
         <v>433</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="126"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="63" t="s">
         <v>434</v>
       </c>
@@ -11734,14 +12041,14 @@
         <v>435</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="128" t="s">
         <v>436</v>
       </c>
       <c r="B16" s="63" t="s">
@@ -11758,14 +12065,14 @@
         <v>438</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="47.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="63" t="s">
         <v>439</v>
       </c>
@@ -11780,7 +12087,7 @@
         <v>440</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
@@ -11812,8 +12119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -11863,7 +12170,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>441</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -11880,14 +12187,14 @@
         <v>442</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
       <c r="J2" s="94"/>
     </row>
     <row r="3" spans="1:10" ht="48" thickBot="1">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>309</v>
       </c>
@@ -11904,14 +12211,18 @@
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="29" t="s">
+        <v>824</v>
+      </c>
       <c r="I3" s="31" t="s">
-        <v>772</v>
-      </c>
-      <c r="J3" s="33"/>
+        <v>771</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>444</v>
       </c>
@@ -11926,14 +12237,14 @@
         <v>445</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="47.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>446</v>
       </c>
@@ -11948,14 +12259,14 @@
         <v>447</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="63" t="s">
@@ -11972,14 +12283,20 @@
         <v>449</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>826</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>827</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="47.25">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>450</v>
       </c>
@@ -11994,14 +12311,14 @@
         <v>451</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="128" t="s">
         <v>452</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -12018,14 +12335,14 @@
         <v>454</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>455</v>
       </c>
@@ -12047,7 +12364,7 @@
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>457</v>
       </c>
@@ -12062,14 +12379,14 @@
         <v>458</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="63.75" thickBot="1">
-      <c r="A11" s="126"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="63" t="s">
         <v>459</v>
       </c>
@@ -12082,14 +12399,14 @@
         <v>460</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="128" t="s">
         <v>461</v>
       </c>
       <c r="B12" s="63" t="s">
@@ -12110,12 +12427,12 @@
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="31" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" thickBot="1">
-      <c r="A13" s="126"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="63" t="s">
         <v>464</v>
       </c>
@@ -12134,12 +12451,12 @@
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="48" thickBot="1">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>466</v>
       </c>
@@ -12154,7 +12471,7 @@
         <v>467</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -12186,8 +12503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -12236,7 +12553,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>468</v>
       </c>
       <c r="B2" s="63" t="s">
@@ -12253,14 +12570,20 @@
         <v>470</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>694</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
+        <v>26</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>821</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>829</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="126"/>
+      <c r="A3" s="128"/>
       <c r="B3" s="63" t="s">
         <v>471</v>
       </c>
@@ -12275,14 +12598,20 @@
         <v>472</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>830</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>831</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="126"/>
+      <c r="A4" s="128"/>
       <c r="B4" s="63" t="s">
         <v>473</v>
       </c>
@@ -12297,14 +12626,14 @@
         <v>474</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="31.5">
-      <c r="A5" s="126"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="63" t="s">
         <v>475</v>
       </c>
@@ -12319,14 +12648,14 @@
         <v>476</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="126"/>
+      <c r="A6" s="128"/>
       <c r="B6" s="63" t="s">
         <v>477</v>
       </c>
@@ -12341,14 +12670,20 @@
         <v>478</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>833</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="126"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="63" t="s">
         <v>479</v>
       </c>
@@ -12363,14 +12698,14 @@
         <v>480</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="128" t="s">
         <v>481</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -12387,14 +12722,14 @@
         <v>483</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="126"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="63" t="s">
         <v>484</v>
       </c>
@@ -12409,14 +12744,14 @@
         <v>485</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="126"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="63" t="s">
         <v>486</v>
       </c>
@@ -12431,14 +12766,14 @@
         <v>487</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="128" t="s">
         <v>488</v>
       </c>
       <c r="B11" s="63" t="s">
@@ -12455,14 +12790,14 @@
         <v>490</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="126"/>
+      <c r="A12" s="128"/>
       <c r="B12" s="63" t="s">
         <v>491</v>
       </c>
@@ -12477,14 +12812,14 @@
         <v>492</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="47.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="128"/>
       <c r="B13" s="63" t="s">
         <v>493</v>
       </c>
@@ -12499,14 +12834,14 @@
         <v>494</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="47.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="63" t="s">
         <v>495</v>
       </c>
@@ -12521,14 +12856,14 @@
         <v>496</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="126"/>
+      <c r="A15" s="128"/>
       <c r="B15" s="63" t="s">
         <v>497</v>
       </c>
@@ -12543,14 +12878,14 @@
         <v>498</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A16" s="126"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="63" t="s">
         <v>499</v>
       </c>
@@ -12565,14 +12900,14 @@
         <v>500</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="174" thickBot="1">
-      <c r="A17" s="126"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="63" t="s">
         <v>501</v>
       </c>
@@ -12591,14 +12926,14 @@
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A18" s="126"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="63" t="s">
         <v>503</v>
       </c>
@@ -12613,7 +12948,7 @@
         <v>504</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
